--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,94 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7280fa93100f9c8/Desktop/Student Registration System/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_2B59C097558ADEAC4B3C0770451510344D078C83" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C7764B9-8FB1-48F8-B492-2CE0F1E835DB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4800" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Registration No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Date Of Registration</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Father Name</t>
-  </si>
-  <si>
-    <t>Mother Name</t>
-  </si>
-  <si>
-    <t>Father's Occupation</t>
-  </si>
-  <si>
-    <t>Mother's Occupation</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,26 +79,88 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -432,65 +448,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" bestFit="1" customWidth="1"/>
+    <col width="14.36328125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.7265625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="5" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="7" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10.453125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="18" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="7.36328125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="9.1796875" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="11.6328125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="12.54296875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17.7265625" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="18.6328125" bestFit="1" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Registration No.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Date Of Registration</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Skill</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Father Name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Mother Name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Father's Occupation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mother's Occupation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>maya</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29/05/2003</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>muslim</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>developer</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FO1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>MO1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12/03/2000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>hindu</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>developer</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FO2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>MO2</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -81,12 +81,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +453,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -538,26 +535,72 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>maya</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29/05/2003</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>muslim</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>developer</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FO1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MO1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>maya</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -572,7 +615,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29/05/2003</t>
+          <t>12/03/2000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -582,7 +625,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>muslim</t>
+          <t>hindu</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -592,7 +635,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -602,72 +645,72 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>FO1</t>
+          <t>FO2</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>MO1</t>
+          <t>MO2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>Test3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12/03/2000</t>
+          <t>25/03/2001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17/07/2025</t>
+          <t>21/07/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>hindu</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>developer</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>FO2</t>
+          <t>FO3</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>MO2</t>
+          <t>MO3</t>
         </is>
       </c>
     </row>
